--- a/CONG NO/CONG NO 2016/Cong no NL ca.xlsx
+++ b/CONG NO/CONG NO 2016/Cong no NL ca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="8" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="26" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="450">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1515,14 +1515,6 @@
     <t>Làm sạch</t>
   </si>
   <si>
-    <t>CÚC
-BĐ</t>
-  </si>
-  <si>
-    <t>HUỆ
-BĐ</t>
-  </si>
-  <si>
     <t>Trả chỉ mặn</t>
   </si>
   <si>
@@ -1533,6 +1525,18 @@
   </si>
   <si>
     <t>GC cá bò đông</t>
+  </si>
+  <si>
+    <t>LÂM
+KG</t>
+  </si>
+  <si>
+    <t>9
+HOÀNG</t>
+  </si>
+  <si>
+    <t>2
+MẠNH</t>
   </si>
 </sst>
 </file>
@@ -30475,8 +30479,8 @@
   </sheetPr>
   <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30501,28 +30505,34 @@
         <v>50</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H1" s="90" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>444</v>
+        <v>448</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>448</v>
+      </c>
+      <c r="L1" s="90" t="s">
+        <v>448</v>
       </c>
       <c r="Q1" s="90" t="s">
         <v>52</v>
@@ -31419,7 +31429,7 @@
     <row r="38" spans="8:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="1.32" right="0.15" top="0.24" bottom="0.16" header="0.16" footer="0.16"/>
+  <pageMargins left="0.16" right="0.15" top="0.24" bottom="0.16" header="0.16" footer="0.16"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -31432,7 +31442,7 @@
   </sheetPr>
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
       <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
@@ -34573,7 +34583,7 @@
     <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C142" s="26">
         <v>120</v>
@@ -34595,7 +34605,7 @@
     <row r="143" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="B143" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C143" s="26">
         <v>6</v>
@@ -34617,7 +34627,7 @@
     <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
       <c r="B144" s="31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C144" s="26"/>
       <c r="D144" s="27"/>
@@ -34637,7 +34647,7 @@
     <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
       <c r="B145" s="31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C145" s="26">
         <v>9318</v>

--- a/CONG NO/CONG NO 2016/Cong no NL ca.xlsx
+++ b/CONG NO/CONG NO 2016/Cong no NL ca.xlsx
@@ -1527,16 +1527,16 @@
     <t>GC cá bò đông</t>
   </si>
   <si>
-    <t>LÂM
+    <t>TÙNG
+TV</t>
+  </si>
+  <si>
+    <t>LUÂN
+VT</t>
+  </si>
+  <si>
+    <t>LẮM
 KG</t>
-  </si>
-  <si>
-    <t>9
-HOÀNG</t>
-  </si>
-  <si>
-    <t>2
-MẠNH</t>
   </si>
 </sst>
 </file>
@@ -2864,6 +2864,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2891,12 +2897,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2906,6 +2906,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2913,15 +2922,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4010,39 +4010,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -4057,18 +4057,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4079,12 +4079,12 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -4566,39 +4566,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4613,18 +4613,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4635,14 +4635,14 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -8123,58 +8123,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>27</v>
       </c>
@@ -8275,14 +8275,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="255"/>
+      <c r="A13" s="255"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="257"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -8498,14 +8498,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="253"/>
-      <c r="B23" s="254"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="255"/>
+      <c r="A23" s="255"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="257"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -8638,14 +8638,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="253"/>
-      <c r="B30" s="254"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="255"/>
+      <c r="A30" s="255"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="257"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -8876,14 +8876,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="253"/>
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
-      <c r="E41" s="254"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="254"/>
-      <c r="H41" s="255"/>
+      <c r="A41" s="255"/>
+      <c r="B41" s="256"/>
+      <c r="C41" s="256"/>
+      <c r="D41" s="256"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="257"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -9695,11 +9695,6 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
@@ -9709,6 +9704,11 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -9745,59 +9745,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="236"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="236"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
-      <c r="B7" s="249"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -10468,58 +10468,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -10944,62 +10944,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="227"/>
       <c r="D7" s="277" t="s">
         <v>28</v>
@@ -18321,14 +18321,14 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>43</v>
       </c>
@@ -20461,6 +20461,13 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -20469,13 +20476,6 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.61" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -22181,39 +22181,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -22226,17 +22226,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -22245,14 +22245,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="57"/>
@@ -22293,15 +22293,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="250" t="s">
+      <c r="A10" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="251"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="252"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -24184,15 +24184,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="250" t="s">
+      <c r="A90" s="252" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="251"/>
-      <c r="C90" s="251"/>
-      <c r="D90" s="251"/>
-      <c r="E90" s="251"/>
-      <c r="F90" s="251"/>
-      <c r="G90" s="252"/>
+      <c r="B90" s="253"/>
+      <c r="C90" s="253"/>
+      <c r="D90" s="253"/>
+      <c r="E90" s="253"/>
+      <c r="F90" s="253"/>
+      <c r="G90" s="254"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -25268,15 +25268,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="253"/>
-      <c r="B136" s="254"/>
-      <c r="C136" s="254"/>
-      <c r="D136" s="254"/>
-      <c r="E136" s="254"/>
-      <c r="F136" s="254"/>
-      <c r="G136" s="254"/>
-      <c r="H136" s="254"/>
-      <c r="I136" s="255"/>
+      <c r="A136" s="255"/>
+      <c r="B136" s="256"/>
+      <c r="C136" s="256"/>
+      <c r="D136" s="256"/>
+      <c r="E136" s="256"/>
+      <c r="F136" s="256"/>
+      <c r="G136" s="256"/>
+      <c r="H136" s="256"/>
+      <c r="I136" s="257"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
@@ -26537,20 +26537,15 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="247"/>
-      <c r="F193" s="247"/>
-      <c r="G193" s="247"/>
-      <c r="H193" s="247"/>
+      <c r="E193" s="249"/>
+      <c r="F193" s="249"/>
+      <c r="G193" s="249"/>
+      <c r="H193" s="249"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -26558,6 +26553,11 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -26594,58 +26594,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -27105,8 +27105,8 @@
         <v>329</v>
       </c>
       <c r="B7" s="270"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269"/>
       <c r="F7" s="269"/>
       <c r="G7" s="13"/>
@@ -27759,39 +27759,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27806,18 +27806,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -27828,14 +27828,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28208,39 +28208,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28255,18 +28255,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28277,14 +28277,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28567,39 +28567,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28614,18 +28614,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28636,14 +28636,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28981,42 +28981,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -29031,19 +29031,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -29054,15 +29054,15 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
@@ -29642,39 +29642,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29689,18 +29689,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -29711,14 +29711,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -30075,39 +30075,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -30122,18 +30122,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -30144,14 +30144,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -30480,7 +30480,7 @@
   <dimension ref="A1:BC38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30508,31 +30508,31 @@
         <v>447</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F1" s="90" t="s">
         <v>447</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1" s="90" t="s">
         <v>449</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J1" s="90" t="s">
         <v>448</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L1" s="90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q1" s="90" t="s">
         <v>52</v>
@@ -31524,10 +31524,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="E7" s="185" t="s">
         <v>294</v>
       </c>
@@ -34809,65 +34809,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="249"/>
+      <c r="D7" s="251"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="56"/>
@@ -34903,15 +34903,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="261" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="266"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -36598,15 +36598,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="264" t="s">
+      <c r="A81" s="261" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="265"/>
-      <c r="C81" s="265"/>
-      <c r="D81" s="265"/>
-      <c r="E81" s="265"/>
-      <c r="F81" s="265"/>
-      <c r="G81" s="266"/>
+      <c r="B81" s="262"/>
+      <c r="C81" s="262"/>
+      <c r="D81" s="262"/>
+      <c r="E81" s="262"/>
+      <c r="F81" s="262"/>
+      <c r="G81" s="263"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -37588,15 +37588,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="264" t="s">
+      <c r="A121" s="261" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="265"/>
-      <c r="C121" s="265"/>
-      <c r="D121" s="265"/>
-      <c r="E121" s="265"/>
-      <c r="F121" s="265"/>
-      <c r="G121" s="266"/>
+      <c r="B121" s="262"/>
+      <c r="C121" s="262"/>
+      <c r="D121" s="262"/>
+      <c r="E121" s="262"/>
+      <c r="F121" s="262"/>
+      <c r="G121" s="263"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -38576,12 +38576,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="261" t="s">
+      <c r="A164" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="262"/>
-      <c r="C164" s="262"/>
-      <c r="D164" s="263"/>
+      <c r="B164" s="265"/>
+      <c r="C164" s="265"/>
+      <c r="D164" s="266"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -38638,11 +38638,6 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -38650,6 +38645,11 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -38686,42 +38686,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -38736,19 +38736,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -38759,15 +38759,15 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="250" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
@@ -41727,39 +41727,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -41774,18 +41774,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -41796,14 +41796,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>379</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -42592,39 +42592,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -42639,18 +42639,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -42661,14 +42661,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>404</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
